--- a/FÉLÉVES_FELADAT/Mérések.xlsx
+++ b/FÉLÉVES_FELADAT/Mérések.xlsx
@@ -79,10 +79,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
     <numFmt numFmtId="179" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="22">
@@ -124,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -143,22 +151,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,25 +179,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,7 +196,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,31 +248,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -287,7 +281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +305,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,67 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,49 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +621,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,26 +641,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +665,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,16 +710,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,22 +739,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,110 +769,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,13 +874,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -899,13 +893,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -926,44 +920,35 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,58 +1109,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -1247,7 +1181,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1307,31 +1241,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1497,58 +1406,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -1620,7 +1478,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1680,31 +1538,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1870,58 +1703,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -1987,7 +1769,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2047,31 +1829,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2230,58 +1987,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -2344,7 +2050,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2404,31 +2110,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5250,7 +4931,7 @@
   <sheetPr/>
   <dimension ref="C1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -5274,7 +4955,7 @@
     <col min="21" max="21" width="9.57142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="6:18">
+    <row r="1" spans="6:18">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5336,6 +5017,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
+    <row r="6" ht="15.75"/>
     <row r="7" ht="15.75" spans="3:21">
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -5349,7 +5031,6 @@
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7"/>
       <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
@@ -5359,7 +5040,7 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -5371,19 +5052,19 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5635,7 +5316,7 @@
       <c r="O12">
         <v>500</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="19">
         <v>3.025102</v>
       </c>
       <c r="R12" s="10" t="s">
@@ -5732,7 +5413,7 @@
       <c r="K14" s="8">
         <v>5.506338</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="14">
@@ -5785,7 +5466,7 @@
       <c r="K15" s="8">
         <v>5.057325</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="14">
@@ -6006,14 +5687,14 @@
       <c r="O19">
         <v>50000</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="19">
         <v>7.546526</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="32"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="29"/>
     </row>
     <row r="20" spans="3:21">
       <c r="C20" s="10" t="s">
@@ -6043,14 +5724,14 @@
         <v>12.26754</v>
       </c>
       <c r="M20" s="10"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="32"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="29"/>
     </row>
     <row r="21" ht="15.75" spans="3:21">
       <c r="C21" s="15" t="s">
@@ -6080,14 +5761,14 @@
         <v>15.394158</v>
       </c>
       <c r="M21" s="15"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="28"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="34"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
